--- a/客户反馈测试表.xlsx
+++ b/客户反馈测试表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\java\code\yunying-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35727AF-FCEB-4E6F-AC1F-C0B65D17DA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83486EF9-2052-4482-96B0-9E0D970D9F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12470" yWindow="1780" windowWidth="12940" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="12940" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,6 +154,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -481,10 +484,13 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -529,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="2">
-        <v>45306.604166666664</v>
+        <v>45672</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>12</v>
@@ -555,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>45306.697916666664</v>
+        <v>45672</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -581,7 +587,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="2">
-        <v>45306.763888888891</v>
+        <v>45672</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -607,7 +613,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="2">
-        <v>45307.385416666664</v>
+        <v>45673</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>27</v>
@@ -633,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="2">
-        <v>45307.479166666664</v>
+        <v>45673</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>12</v>
@@ -659,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="2">
-        <v>45307.572916666664</v>
+        <v>45673</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>27</v>
@@ -685,7 +691,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="2">
-        <v>45308.430555555555</v>
+        <v>45674</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -711,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="2">
-        <v>45308.524305555555</v>
+        <v>45674</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>12</v>
@@ -737,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>45308.659722222219</v>
+        <v>45674</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>27</v>
@@ -763,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="2">
-        <v>45309.350694444445</v>
+        <v>45675</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
@@ -775,5 +781,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>